--- a/data/hotels_by_city/Dallas/Dallas_shard_341.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_341.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="874">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Pavithra D</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>btomatoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r570259665-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Our room was newly remodeled but the trim job and finishing is a bit lacking.  The black out curtains had some holes, but that didn't bother our sleep.  I will say that the lobby and all is still a work in progress and should look nice when finished.  We had a couple of small wads of hair on our pillows which could have come from the laundry but should have been caught by housekeeping and several strands of hair in the bathroom.  The bathtub was slow draining so we had to shower in ankle deep water.  After removing the pillows from the bed we slept well.  Breakfast was nice too and well stocked.More</t>
   </si>
   <si>
+    <t>t_gale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r550332873-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Sean99icecream</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r536486860-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>flyplayne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r529262391-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Stayed for a long weekend to celebrate a surprise birthday. Perhaps a little hard to find w/o a navigation system. Near busy Hy. 121. Looks almost brand new. Large parking places. Check in was fast, efficient and friendly. Room was large. Desk space was adequate with large flat screen TV. Lighting was terrific, except the "nite" light was a little TOO bright. Had to turn it off. Instead of the usual vertical curtains &amp; drapes, there was a pulley operated [with cord] semi transparent shade and another "black out" shade. They were wonderful. Comfy beds &amp; pillows. Small frig, microwave, and a Kuerig coffee maker. The shower pressure was BARELY adequate and the spouse could not use it to shampoo her hair. We both thought the tub bottom was a little slippery, so be careful! Only 1 sink, but adequate counter space. 3 pegs above the luggage stands for hanging sweaters, jackets, etc. Nice touch! Iron &amp; ironing board in wardrobe Room was exceptionally quiet, in spite of a girls softball tournament being held across the street, in back of the hotel. Could actually pull a chair up to the window and watch games on 2 of the 3 fields. No sound, of course.Breakfast was good. Especially liked their cinnamon rolls. It also had a pancake making machine that we didn't use, though it got good reviews from other guests. Always found a place to sit. Seemed to seat about...Stayed for a long weekend to celebrate a surprise birthday. Perhaps a little hard to find w/o a navigation system. Near busy Hy. 121. Looks almost brand new. Large parking places. Check in was fast, efficient and friendly. Room was large. Desk space was adequate with large flat screen TV. Lighting was terrific, except the "nite" light was a little TOO bright. Had to turn it off. Instead of the usual vertical curtains &amp; drapes, there was a pulley operated [with cord] semi transparent shade and another "black out" shade. They were wonderful. Comfy beds &amp; pillows. Small frig, microwave, and a Kuerig coffee maker. The shower pressure was BARELY adequate and the spouse could not use it to shampoo her hair. We both thought the tub bottom was a little slippery, so be careful! Only 1 sink, but adequate counter space. 3 pegs above the luggage stands for hanging sweaters, jackets, etc. Nice touch! Iron &amp; ironing board in wardrobe Room was exceptionally quiet, in spite of a girls softball tournament being held across the street, in back of the hotel. Could actually pull a chair up to the window and watch games on 2 of the 3 fields. No sound, of course.Breakfast was good. Especially liked their cinnamon rolls. It also had a pancake making machine that we didn't use, though it got good reviews from other guests. Always found a place to sit. Seemed to seat about 50, plus a few more tables &amp; chairs outside to use, weather permitting. No restaurants, that I could find, within walking distance, so transportation would be a necessity. Lots of restaurants within 5 minutes drive.Small gym &amp; exercise room that we didn't use.Wi-Fi in room was good. 1 of 2 computers in lobby was not working. Bill was under the door the morning of our departure. Would certainly stay here again, if in the area.More</t>
   </si>
   <si>
+    <t>W3916SLruthm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r510125102-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>NinjaMamaCL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r502058590-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>We had a non smoking room but I smelled cigarette smoke every time I opened the door. The room is very spacious. The wall is thin. At nighttime I heard the neighbors TV and footsteps from above us. The bed and pillows are comfortable. Helpful and friendly staff. The breakfast is ok.More</t>
   </si>
   <si>
+    <t>PravKr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r487422743-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>Had a wonderful stay at this hotel. I appreciate the house keeping for their cleanliness and hotel staff for courteous and helping attitude. Place may be silent but it was home away from home and peaceful for 2 weeks to rejuvenate. Thanks for making our Tues and Thurs great.Andrew, Rebuy and Taylor, thanks for being a great host!</t>
   </si>
   <si>
+    <t>traveler_317106</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r484108011-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t xml:space="preserve">Bed was comfyOnly compliant is road noise so bring a white noise machine or you will not have a peaceful stay. Request a room on backside of hotel. Good breakfast. Clean room. Nice staff. We will stay there again. </t>
   </si>
   <si>
+    <t>Kevin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r481084944-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>I rank this along with the better Holiday Inn Expresses.  Very friendly staff, clean, impressive breakfast area next to the lobby.  Nice sized, clean room.  If I had a suggestion, it would be to the architect who designed this location.  The check in area is way too small and too close to the front door.   It becomes a congested mess when the check in line becomes longer.</t>
   </si>
   <si>
+    <t>dgage30445</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r478934357-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -376,6 +409,9 @@
   </si>
   <si>
     <t>April 2017</t>
+  </si>
+  <si>
+    <t>Joe S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r471151203-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -417,6 +453,9 @@
  - The entire time I was there I could not figure out how to turn on the lamp in the corner. No switch on the lamp, and none of the wall switches (unless I missed one) would work the lamp. 
  - If you like a dark room, you may need to place a towel near the door. The gap under the door was large and let in quite a bit of light with the curtains drawn and the lights off, enough that an additional night light is not needed to get to the bathroom at night. (I guess that is kind of a feature!) 
 Overall the room was nice. The HVAC worked fine and kept the room comfortable. There was a little road noise, but hardly noticeable. There...This is a pretty good Holiday Inn Express. As with most Holiday Inn Express locations, you can expect to receive service at a fairly good standard. This location is no exception. Pluses:  - TV was good with DirecTV satellite channels and the remote worked well - I had a King suite which was nice with a couch, coffee table, and desk.  - Closet was really nice, roomy, a lot of hangers, and easy to access. - Room had a jacuzzi tub that was very largeMinuses:  - Jacuzzi tub had a rather high step over to get into the tub, and it could be a bit tough for those with mobility concerns.  - The entire time I was there I could not figure out how to turn on the lamp in the corner. No switch on the lamp, and none of the wall switches (unless I missed one) would work the lamp.  - If you like a dark room, you may need to place a towel near the door. The gap under the door was large and let in quite a bit of light with the curtains drawn and the lights off, enough that an additional night light is not needed to get to the bathroom at night. (I guess that is kind of a feature!) Overall the room was nice. The HVAC worked fine and kept the room comfortable. There was a little road noise, but hardly noticeable. There was a Keurig in the room which was a nice touch, but with the free breakfast at HIE, I am not sure how much it gets used. Like most HIE, the parking was pretty close to capacity. I did mention to the desk that there was a truck and trailer occupying 6 spots, but they didn't do anything about it that was apparent. (Makes you wonder why they even ask for license plate numbers...) I also mentioned to the desk that there was a slight leak from the toilet tank and at the sink faucet (nothing that was a problem for me) and the desk immediately filled out a repair ticket. It was just something I noticed, but it is good to know they jump on repair issues before they go from bad to worse when notified. I liked the room and would stay here again.More</t>
+  </si>
+  <si>
+    <t>Roopa R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r471115288-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -473,6 +512,9 @@
 We just bought detergent in their little store by the lobby and used the washer/dryer. Very helpful...We stayed here for about a week in August 2016 when we relocated from another city and couldn't be more pleased with our stay.We had a 2 queen bd room on the 2nd/3rd floor I think.Really like the hot coffee in the main lobby all day longSometimes they leave out cookies/snack in the hallway near the main lobby which is niceIn Aiugust, they even had lemonade in the lobby which was nice.Great breakfast spread. 2/3 TV's in the breakfast lounge.The lounge is open all day long if you just want to be there and relax.Good breakfast and you get the packet oatmeal if you dont' want any other carbs.Fresh fruit is available too.Housekeeping daily was good too.We used the side entrance where we parked our car, so easy to get in and out.This location is so close to so many Indian restaurants in Plano, which we frequented when we stayed here.Target is close by in case you need any groceries.Denny's is right opposite the hotel. Microwave and mini-fridge in the rooms.Happy with our stay. Will be back again.We didnt' check out the pool, we were busy!!BEST PART - ON-SITE LAUNDRY. There's a coin operated washer and dryer you can use on each floor by the ice machine.We just bought detergent in their little store by the lobby and used the washer/dryer. Very helpful !!More</t>
   </si>
   <si>
+    <t>Anjelica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r455524319-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -491,6 +533,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>ALS2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r442128774-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -509,6 +554,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>CTopher81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r434442904-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -527,6 +575,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Rene H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r427380544-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -545,6 +596,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Huey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r419496837-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -563,6 +617,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>cobalt222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r415378536-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -578,6 +635,9 @@
     <t>This hotel is what all Holiday Inns should strive to be like.  Friendly staff, very accommodating.  Clean property and well maintained inside and out.  Breakfast is great and the staff keeps it well replenished even when they are busy.  I would highly recommend!</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r398948752-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -599,6 +659,9 @@
     <t>We have stayed here before and liked it so much we returned.  It is right off the hwy and just down the road from the outlet mall and there are tons of restaurants all around and some within walking distance.  We stayed in a suite this time and the room was very spacious and had a jetted tub. We stayed during the hottest week of the summer and the a/c worked great!  Our biggest complaint is one of the queen beds sagged in the middle, we put a pillow there to keep from rolling into it and the sheets could have been softer.  We did need to use the laundry room one night and there was only one washer &amp; dryer and a line of people waiting to use them, had to get up before 6am the next morning to get uniforms washed.  Everything else was good and the service was good.More</t>
   </si>
   <si>
+    <t>gails234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r394630044-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -614,6 +677,9 @@
     <t>This hotel is great and had all of the amenities I like when I travel. Free breakfast, WiFi, safe in room, microwave and fridge, iron, coffee pot. Check in was fast and easy. However GPS will take you to McKinney, TX and drop you in the middle of no where. I suggest you CALL the hotel for directions or just remember it's behind Denny's</t>
   </si>
   <si>
+    <t>Beth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r383919057-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -632,6 +698,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>slmnsam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r383528932-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -650,6 +719,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>travelerpadoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r382024219-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -668,6 +740,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>micyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r381842793-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -680,6 +755,9 @@
     <t>This hotel has all you need to provide you with a good nights sleep and a comfortable stay. We stopped here after our usual go to hotel, was full. It is new, well decorated well and has lots of amenities. Comes with a complete breakfast. Has a friendly staff, and convenient parking.</t>
   </si>
   <si>
+    <t>Boottrax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r331824321-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -707,6 +785,9 @@
     <t>This is a recommended hotel for my business travel.  I've stayed here a few times now.  The hotel is clean, not necessarily quiet. There was definite foot stomping from the floor above me and the rooms next to me.  I also was privy to a loud discussion in the parking lot which I could hear well from my closed window.The food is meh for typical holiday inn breakfast food.  The scrambled eggs were overdone.The Internet wifi is spotty and dropped out a few times.The in room TV didn't work.  I had to get a new remote as the original wasn't compatible. The location is off of the parking lot known as Interstate 75 with little restaurant fare except for the vanilla box chains. More</t>
   </si>
   <si>
+    <t>Janette W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r329768996-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -722,6 +803,9 @@
     <t>Great Staff, good location right off HWY 75. We stayed here on our recent trip to see Disney On Ice in Allen, Texas. The hotel was clean and modern. Great business center with internet access. Has indoor pool but we did not use it. Breakfast was good, with excellent staff...eggs, sausage, biscuits/gravy, fruit, bagels, pancakes, juices, coffee, etc</t>
   </si>
   <si>
+    <t>Polly S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r328247331-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -758,6 +842,9 @@
     <t>This hotel has a nice, classic décor and the property is well maintained.  We stay with HI Express a lot and this hotel was a step above some of the others.  The room and linens were clean and comfortable.  When you travel a lot, you start to look at details beyond the room.  I believe the hotel was fully booked both nights we were there and the sound proofing was very good, we rarely heard the people in the room above us.  This is a smaller hotel and it had 2 elevators that were fast, quiet, air conditioned and clean.  The breakfast buffet was the standard HI Express food, wish all HI Expresses would change out who they buy their sausage gravy from, it's not good.  The location is great, very close to restaurants and shopping.More</t>
   </si>
   <si>
+    <t>LazyBum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r322933936-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -785,6 +872,9 @@
     <t>This hotel is located in the middle of a typical suburban shopping center, so there are plenty of national chains nearby for shopping and dining. As far as the local Dallas dining scene it was about 20 miles away and we didn't have time to explore. The room itself was clean and nice. We didn't find the noise to be a problem as others have said.We had a poor customer service experience while checking out. We had finished work early and changed our flights to leave a day early. While checking out the manager said since it was after 5:00 p.m., we would be charged for that night. The problem with this was it was only 4:50 p.m. When I corrected her about the time she said check out is 11:00 a.m. Confused I then asked if she had just said it was 5:00 she said that is correct. I tried to get her to clarify what she was saying but she kept talking in circles and I didn't have time to argue before our flight. The bottom line is she did a very poor job of explaining the hotel's policy. If the policy states no refunds after 11:00 then I'm happy to follow it but the manager herself told me the cutoff is 5:00. In that case she needs to follow the policy.More</t>
   </si>
   <si>
+    <t>mandy w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r310693084-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -800,6 +890,9 @@
     <t>Rooms are good size, floors and walls are thin.  Breakfast--well lets just say never eat it.  The milk was expired and spoiled, the coffee creamer was old and spoiled.  I wouldn't try anything after that.</t>
   </si>
   <si>
+    <t>Burns1995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r307514454-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -851,6 +944,9 @@
     <t>Atypical holiday inn.  Close to my work and food options.  Clean. Free HBO, comfortable beds with pillow options.  Little noisy.  Temperature set to 65 degrees makes room fairly cold to begin with.  Pancake machine runs to midnight if you have some sort of pancake fettish.More</t>
   </si>
   <si>
+    <t>Debbie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r298593754-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -866,6 +962,9 @@
     <t>We chose to stay here again.  It is a great location, super clean and oh so nice.  The rooms are spacious, the pool clean and refreshing.  Great breakfast.  Front desk staff nice and polite.  The price is right.  Had our grandkids with us and said it is "fancy" and makes them feel special.  Will stay again next year.</t>
   </si>
   <si>
+    <t>mikeyh72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r296162361-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -881,6 +980,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>John &amp; Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r290921857-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -896,6 +998,9 @@
     <t>This hotel was difficult to get to because of the traffic, construction, and location in Allen, Texas. We tried to check in early but the room was not ready at 2 PM.  Once we got in the room was clean, well furnished, and comfortable. We had a king size bed and the room had a microwave and refrigerator.   It was very nice.  Breakfast was average but staff was friendly. They had fresh cookies and lemonade in the afternoon.</t>
   </si>
   <si>
+    <t>1gardengirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r288349501-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1016,9 @@
     <t>The Holiday Inn Express &amp; Suites Allen North was comfortable and cozy.  It looked like it had been updated and rooms were very clean.  The room was quiet and we slept like we were home.  Mattress was a little lumpy but other than that it was great!  It was located next to a strip center and had several places to eat in front.  It also had a good breakfast with a very friendly staff serving your needs.</t>
   </si>
   <si>
+    <t>James R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r279410621-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1037,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Joy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r265931429-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1067,9 @@
     <t>Wonderful location.  We were moving from Fairview to Florida and had to be out of our house since the movers had already taken all the furniture. We were really able to relax in this wonderful and clean hotel.More</t>
   </si>
   <si>
+    <t>Jonna G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r258667867-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1100,9 @@
     <t>While it is pleasing to the eye, you can tell that the building was shoddily built and poorly constructed. I sounded like an elephant every time I took a step in my fourth floor room. Also, heard a couple getting it in the night before only to have someone call a noise complaint on my for talking with a friend. Interesting. I didn't stay in the room long, but you can hear EVERYthing.More</t>
   </si>
   <si>
+    <t>Denver8206</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r257724846-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1116,9 @@
   </si>
   <si>
     <t>Enjoyed our stay here while we were visiting family for an in-town event.  Great Breakfast and business center and a very nice heated pool! Staff was very nice and the location was good. Only thing that could have made it better was if the weather would have cooperated!</t>
+  </si>
+  <si>
+    <t>candydips</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r251956171-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -1038,6 +1158,9 @@
 I had an episode with housekeeping. I came home after work noticed that some of my items were moved. I looked around to make sure to make sure nothing was missing. My Sunday newspaper was missing from my nightstand that I bought yesterday. It was fully packaged and unopened. The housekeeper helped herself to it. I went to the front desk to make perfectly clear that I did not want my personal items thrown away or taken unless It was in the garbage. The front desk lady said she will ask the housekeeper. I asked her not to because it wasn't a big deal. I just do not want anything thrown out that is not in the garbage. I walked back to my room. My phone rang when I walked in the room. The lady from the front desk called and stated the housekeeper saw me take the newspaper to the gym...The pros's:The room was clean. The bed was very comfortableThe con's:The walls are paper thin. I could hear entire conversations and a baby crying from across my room. The breakfast was mediocre. They offer fruits, runny fake cold eggs, cold turkey sausage, packaged oatmeal ect. It was nothing impressive.The wifi was terrible. It turns off every five minutes; it was extremely  irritating when I was trying to work. I had to go to a coffee shop 5 miles away to get some work done.I had an episode with housekeeping. I came home after work noticed that some of my items were moved. I looked around to make sure to make sure nothing was missing. My Sunday newspaper was missing from my nightstand that I bought yesterday. It was fully packaged and unopened. The housekeeper helped herself to it. I went to the front desk to make perfectly clear that I did not want my personal items thrown away or taken unless It was in the garbage. The front desk lady said she will ask the housekeeper. I asked her not to because it wasn't a big deal. I just do not want anything thrown out that is not in the garbage. I walked back to my room. My phone rang when I walked in the room. The lady from the front desk called and stated the housekeeper saw me take the newspaper to the gym yesterday morning. It was a clear lie. How can you run on the treadmill and read a newspaper. After i realized if the housekeeper would lie about something so small what prevents them from stealing something else and lying about it? I didn't feel safe letting housekeeping in anymore. I had 3 days left that the company paid for so I could not check out. When I stay in a hotel I need to feel safe leaving my personal items and I didn't feel that way anymore with this hotel. I will not be recommending this hotel to others due to the housekeeping incident and the horrible wifi.More</t>
   </si>
   <si>
+    <t>Michael H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r242571925-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1179,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>M&amp;N T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r242014946-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1197,9 @@
     <t>Dewayne checked me in to the family suit and it was amazing. The pool was amazing the hot tub was huge and at a perfect temperature. The fitness room was awesome the right equipment and my favorite was the direct TV and HD quality in front of me. If you stop by ALLEN TX. Stop at holiday inn express. Very satisfied. Meet Dewayne he will make sure you have the Perfect stay.</t>
   </si>
   <si>
+    <t>soprincess_78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r237813316-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1215,9 @@
     <t>This hotel does the job.  The beds were very comfortable (I wanted to snatch the pillows) and the room was clean.  Cant ask for more.  The people at the front desk were helpful and friendly.  Oh and there is free breakfast.</t>
   </si>
   <si>
+    <t>RenegadeTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r236436334-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1239,9 @@
     <t>Nice hotel and accommodations, just a couple issues.  First, the hotel uses Dish or DirectTV and it was painfully slow to watch TV and especially when trying to bring up the guide or change channels.  It was not uncommon for the channel change to take 20-30 seconds to complete.  Luckily, we were only in our room briefly, but I would have been very disappointed had we spent the evening there.  The second gripe is how they roll and stuff the extra towels under the vanity.  They point them toward and touching the drain trap.  Kinda gross if there had been any work on the trap, but I know others may think I am a bit sensitive.  My recommendation is to simply put them under the vanity and away from the trap.  There is plenty of room to make this happen.  Otherwise, the room and bathroom were very clean and nicely decorated.  Breakfast was the typical HIX fare.More</t>
   </si>
   <si>
+    <t>Duane F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r234330827-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1257,9 @@
     <t>While the accommodations were OK, we feel very misled by this service.  It charged us $164, but the rate they paid the Holiday Inn was $113.  So HR.com charged us over $50 just for their service.  And the phone rep. was very irritating.  No one should use this site, unless money is not important to them.</t>
   </si>
   <si>
+    <t>Jeanne A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r231026004-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1285,9 @@
   </si>
   <si>
     <t>Our suite was was very large, clean and comfortable. We had family over before an outing, and they were very impressed. The breakfast is amazing...bacon, eggs, biscuits, pancakes, pastries, yogurt, fruit hot cereals and, and and... The fitness center was adequate, and I used it daily. The business center is nice and we used it for printing gift certificates, etc. We were close to shopping and the outlet mall. It was a short drive to McKinney, where we had lunch out and did some shopping. If you're undecided, this is the place to stay. You'll be greeted by very courteous, and professional, staff who make you feel like it's an honor to have you as a guest. Our three night stay couldn't have been better. We'll be back!More</t>
+  </si>
+  <si>
+    <t>momoffour1970</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r225058320-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -1179,6 +1320,9 @@
 The pool area was small, but very clean and served its purpose. There were a lot of people in it at night and they were very loud. There were many guests there, attending some kind of basketball tournament with their kids, so the hotel was overrun with people. I was happy we were...I am glad we chose this hotel out of the seven options in Allen. We stayed at a different one last summer and found it to be mediocre. This hotel was a better price and the people were friendlier. Check in was an easy process, which was nice after being in and out of airports and on planes all day. The guy that checked us in was great. We went up to our room and upon walking in, realized we were going to have a situation with the guests next door. They were yelling profanities and were belligerent. The guy that checked us in found us another room immediately, even though they were booked, by switching some things around. Our new room was wonderful and QUIET, which is exactly what we needed. The free breakfast was great. They offer a wide variety: eggs, sausage, biscuits and gravy; cinnamon rolls; cold cereal and instant oatmeal; fruit (apples and bananas); toaster items; pancakes. Since I am not a big breakfast eater, I just chose oatmeal, a banana, juice and coffee. My son ate mostly everything and enjoyed it all. The pool area was small, but very clean and served its purpose. There were a lot of people in it at night and they were very loud. There were many guests there, attending some kind of basketball tournament with their kids, so the hotel was overrun with people. I was happy we were in our own little quiet sanctuary, away from the noise. I am sure the hotel is generally quiet under normal circumstances. Next time we visit Texas, we will choose Holiday Inn Express for our stay. More</t>
   </si>
   <si>
+    <t>RachelDG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r216821392-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1350,9 @@
     <t>This HIX looked exactly like a HIX from the outside, but the inside was quite different than other properties in the chain.  This one had a darker feel, with the dark wood, almost like from the baroque period.  The property was extremely busy the night I checked in.  Parking was difficult.  Then I had to wait in the lobby for about 15 minutes before reaching the night clerk because so many people were checking in and there was only one person working.  The hallway coming off the elevator was really tight with the cart.  I got settled into bed, when I heard a woman trying to gain entry into my room.  I recognized her as being behind me in line.  She had her cart full and had apparently been given the exact room number and key that was given to me!  Luckily I had the door lock disabled.  That's pretty bad in my book, but I'm sure it was because the night clerk was extremely busy and was trying to move fast.The breakfast was what you would expect.  The room was clean and what you would expect from of HIX.More</t>
   </si>
   <si>
+    <t>NatARG99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r215529167-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1377,9 @@
     <t>I have stayed in this hotel three times, and so have many of the employees in the company, and all I can say is that the staff is AMAZING!!! They are always on top of things, making sure you feel like at home. The rooms are very clean and the breakfast buffet is wonderful. Thank you, team, for all you have done for our company!!Natalia IbañezTravel ManagerMore</t>
   </si>
   <si>
+    <t>Acohen1013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r214095601-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1407,9 @@
     <t>my family and I just stayed there for 4 days. We had 5 rooms, 2 which were suites! AMAZING rooms. CLEAN! Friendly, and quiet :) Great location! Thank you!!!! My family lives in Allen &amp; this will be our GO-TO hotel whhen we visit from now on!!!More</t>
   </si>
   <si>
+    <t>OKBOWTIE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r210853564-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1434,9 @@
     <t>Hotel was very clean and the desk staff was outstanding. Checking was quick and painless. we had a little noise problem that night from upstairs, but it seemed to be taken care of before 10 pm. Bed was very comfortable, and the shower was a nice end to a long day on the trike. The walls might be a bit thin, we heard the room next door alarm and TV the next morning, but it too was quickly resolved and quiet again. The breakfast was good and hot, pancake machine was fun to watch and everything tasted great. This will be the first place we look for a room on our return trips to Allen,TxMore</t>
   </si>
   <si>
+    <t>Eva M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r205264760-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1464,9 @@
     <t>I loved my stay on May 7 so much I also stayed on May 11 as well when I was returning to my home in Houston.The room smelled so nice and was very clean.  On my return I booked in a suite and loved the extra room.  More</t>
   </si>
   <si>
+    <t>BJR2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r203844038-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1494,9 @@
     <t>This hotel was great. The parking is a bit hard to manage as the lot is mainly on the back side of the hotel or otherwise you're parking in a restaurants lot. Otherwise you wouldn't know you were in a holiday inn. The decorations and amenities of this hotel made you feel as if you were in a 4 or 5 star location. Highly recommended. More</t>
   </si>
   <si>
+    <t>Longmont_Mitch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r200784067-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1521,9 @@
     <t>This Holiday Inn Express is new and nicely laid out. The front desk staff were all top notch. At least three restaurants are within easy walking distance of the hotel (IHOP and two Mexican). Ample parking and good dining area. They also have a small store near the front desk and laundry facilities. More</t>
   </si>
   <si>
+    <t>Phaser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r200646157-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1542,9 @@
     <t>Nice hotel, friendly staff, good rooms.Nice solid Precor cardio fitness equipment.Issue 1: The A/C has a fan mode but does not function properly--in A/C mode, manually setting the fan should keep the fan running (providing desirable white noise) but A/C and fan would shut off once the temp setting was reached.  In this mode, the fan should continue to run regardless.  This results in waking up and trying to go back to sleep.Issue 2: Breakfast isn't expected to be great, but, the reconstituted scrambled eggs, as in many hotels, leaves a lot to be desired.  On the plus side, this HIE had apples which for some reason seem to be rare in most HIE's.More</t>
   </si>
   <si>
+    <t>Rousseau68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r193244020-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1404,6 +1572,9 @@
     <t>My wife &amp; I stayed here over Thanksgiving 2013. The hotel is immaculate and staff extremely friendly. Our room was beautiful and spacious. Breakfast was of a high standard. We will certainly be returning here when next in North Dallas.More</t>
   </si>
   <si>
+    <t>krla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r183433070-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1602,9 @@
     <t>Nice decor and great location were great but poor construction made is less than relaxing.  You hear:  every step on the floor above,  your own furniture rattle when you walk by b/c the floor has so much flex,  all your neighbors showers, people talking on one wall, someone coughing behind your headboard.  Also, second tv did not work.  Breakfast experience was not the best. Serving area was understaffed considering the hotel was at capacity.  In addition to my room charge I noticed an additional $20 charge on my card website.  Called and was told it was some sort of standard deposit that would be taken off in a couple of days.  Never heard of such.  Plan on cancelling a future reservation and head back to Marriott.More</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r183267423-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +1626,9 @@
     <t>I stayed here for 3 nights during the last week of October. I found the room to be comfortable. The staff were friendly. The breakfast offered enough variety... And the location is very convenient to shopping &amp; various fast food and moderate scale chain restaurants. There were two customer appreciation nightsduring my stay and those offered a variety of beer and soft drinks and snacks.  While I stayed on the third floor on the side facing the freeway, the road noise did not seem to bother me.  I guess my only reservation about this place was the fact that the fan unit on the ac could not be set to just "stay on" all the time.  If that isn't nettlesome to you, then I think this place would satisfy most travelers.  I liked it and would stay here, again.More</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r157932011-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1656,9 @@
     <t>Clean, good looking lobby.  Friendly staff.  My room and bathroom were very clean and smelled fresh.  The breakfast selections were very good, and I was also impressed by the dining area.  There are quite a few options for food that are walkable from the hotel if you want to get out.  I thought it was excellent value for the money - I'll stay there again next time I'm in the area.More</t>
   </si>
   <si>
+    <t>colton99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r154589070-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1503,6 +1683,9 @@
     <t>Is located right off 75, about a mile down from the outlet mall and cabelas. Great rooms for a great price. Located around a lot of restaurants and places of interest. The staff is friendly. The hotel is very up to date as well. More</t>
   </si>
   <si>
+    <t>Lstew55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r153248904-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1713,9 @@
     <t>Lovely facility - great workout room, great high definition TV in the room, nice towels, quiet in the room - all the things I expected from the Holiday Inn Express.This time, I had a room on the 4th floor and I am uncertain if the Hollywood Icon photos are in all the rooms, or only some. There was a photo of Humphrey Bogart that seemed to stare at the bed and one of Mr. Bogart that seemed to stare into the bathroom.  I would have preferred to have pictures of scenery, still life, some bucolic country setting - these photos creeped me out. But other than that, all was swell.More</t>
   </si>
   <si>
+    <t>riderlady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r152285100-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1740,9 @@
     <t>The service and the room was great. We will definitely stay hear again. Location was very good. Easy off and on and good restaurants nearby or in the same parking lot. Front desk personnel were very accomodating. We were on Motorcycles and they were helpful for where to park them.More</t>
   </si>
   <si>
+    <t>LindaMattusch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r152184586-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1767,9 @@
     <t>We were pleased and surprised at how comfortable/QUIET/clean this hotel was. They were always cleaning. Nice touch with the Tuesday/Wednesday evening snacks in common area. Good breakfasts variety in common area. Grandchildren ,of course, loved the pool and snack store. Plus cookies at the end of the day!! Only thing--beds were slightly soft which is hard on the backs and missed  fan in the bathroom as mirror would steam up--not good for women's hair styles. Desk staff very helpful and courteous. Very covenient  to son's home.Would be nice if could open windows to let in fresh air!!!More</t>
   </si>
   <si>
+    <t>Carrol H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r152139750-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1788,9 @@
     <t>This was our first time to visit in Allen, Texas. WE arrived at our hotel and were impressed with the outside. Everything was well groomed and very clean. The inside was just as inviting. We were greeted and got checked in in a timely manner and given our priority gift.  Our room was on the first floor as we had asked for and it was most inviting.Our stay was excellent. The bed was excellent. The room and the halls were very quiet. Breakfast was excellent and a very friendly staff greeted us upon our arrival for breakfast.  We would definitely recommend this hotel to our friends and others. The location was very close to our meeting, shopping , and eating.More</t>
   </si>
   <si>
+    <t>JoefromOklahoma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r148599447-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1818,9 @@
     <t>The hotel was nice.  It had everything we've come to expect from a Holiday Inn Express, where we stay more than 60 nights per year.  The breakfast was very good.  The room was clean.  Check-in was fast. We will stay here again.More</t>
   </si>
   <si>
+    <t>sandcastles08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r147540177-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1857,9 @@
     <t>Have always stayed an another chain hotel when in Allen, but because of this hotel's location, decided to try it.  Was pleasantly surprised--nice hotel, great staff and comfortable, clean accomodations.  Located within walking distance of an Arby's, a Mexican restaurant, and an incredibly long strip shopping center that has a Tom Thumb Grocery (a hefty walk from the hotel)  as well as many other shopping options. The breakfast was good (loved the pancake machine!).  This is standard Holiday Inn Express facility--nothing fancy, but very adequate for the business traveler.  I got a good rate, as well!  Member of my work group all shared that we would stay at this hotel, again.  The only detraction I can offer was a confused reservation (mine was attached to another member of my party).  It had to be repaired at both check-in and check-out.  Staff were quick to respond--so it really didn't end up being that big of a deal.More</t>
   </si>
   <si>
+    <t>elenatx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r144952439-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1884,9 @@
     <t>I'm not one to write a review, I actually have never but I thought I would warn the next person so they wouldn't waste money on a room that wasn't worth but maybe $40 tops. When i arrived the check in was good, a very nice lady helped me, and gave me directions to where we wanted to go. When we went to the room, first thing i noticed was a big dried up spot of sauce on the carpet. Bathroom smelled of mold and tub was rusted along the faucet area. Beds were comfortable so no complaint there. The next morning, woke up to find a cockroach crawling along the wall. Went to check out, made a complaint to the front desk about the cockroach, and all i got was a $10 discount. So i paid about $80 for my room after all was said and done. WILL NEVER stay here again!More</t>
   </si>
   <si>
+    <t>Joanna P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r134669197-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1905,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Brent P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r133926025-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1722,6 +1929,9 @@
     <t>I travel for business quite a bit for many years. This facility has got to be the cleanest and updated HIE I have stayed in. and the employees were all super friendly, had a gift for us for being priority club, fresh cookies at checkin. We had a great suite with a jacuzzi. The start switch was broken, and you cannot get them at Walmart on a Friday night. The maintenance man was very friendly, came immediately to the room, and found an alternate way to make the jets work. Comfy bed, lots of premium TV stations and great breakfast. And of course my wife gave it extra stars for being close to the Allen Outlet Mall. We will defiiely stay in this hotel again!More</t>
   </si>
   <si>
+    <t>4hends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r133646219-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1737,6 +1947,9 @@
     <t>We stayed in a wonderful room.  Private king bedroom with adjoining 2 queens, living area and 1 bath.  The perfect size room for our family of 4 (2 adults/2 teens - one boy and one girl).  3 TV's.  The decor was beautiful and nice.  Pretty finishings in the bathroom.  All was wonderful except the beds were soft, mushy and extremely uncomfortable.  And the breakfast was just okay.  Powdered eggs, paper plates.  Not that great.  But it served a purpose.  All in all it was a great stay and I would definitely stay there again.</t>
   </si>
   <si>
+    <t>Bonney H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r133293246-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +1965,9 @@
     <t>Our family often travels to Dallas for work but also to see family that lives in the Allen area so this hotel works based on location. This past trip there was a mix up with our reservation but Puneet was able to rearrange some things for us and accomidate our needs. This was great, especially since we were staying for 11 nights and we were traveling with our 2 yr old!The daily cleaning of our room was great, the front desk staff is is always freindly and the workout facility was nice too.We definitely recommend this hotel to business travelers, families, etc.</t>
   </si>
   <si>
+    <t>MommaMia21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r131055909-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +1983,9 @@
     <t>Great location off Central Expressway but never heard the traffic - very quiet!!  Close to great restaurants and shopping.  Staff was very nice.  Price was good but beware - if you intend to pay cash they charge a deposit of $250 per night - didn't like that!!!  Beds were very comfortable, and everything was nice.  The kids really enjoyed to pool although they do close that pretty early!  Coffee wasn't great but wasn't horrible either.  All in all a great stay!</t>
   </si>
   <si>
+    <t>dkline201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r124522829-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2022,9 @@
     <t>Lovely room - nice lamps, great TV, nice work station/desk, good air temperature control, clean facility - Happy Hour Tuesday - Thursday with wine and beer - close to places to eat (On The Border within walking distance) - the bed was a little more firm than I like, but no complaints.  Great value!</t>
   </si>
   <si>
+    <t>civilprof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r122325733-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1824,6 +2046,9 @@
     <t>My wife and I have stayed here numerous times while visiting family at Christmas. The staff is always very friendly and the amenities are wonderful. The rooms are spacious and comfortable and all of the rooms that we've stayed in have had a refrigerator, microwave, and coffee maker, plus an in-room safe. The staff puts out warm chocolate-chip cookies every evening and there's always a basket of apples in the lobby if you want a healthy snack. On mid-week evenings, there's a manager's reception with free drinks and light snacks. The breakfast area is warm and inviting with a fireplace and couches where you can curl up and read any time of the day. When we go to Allen, it's usually for 5 or 6 days at a time and we always feel right at home here.More</t>
   </si>
   <si>
+    <t>Aaron A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r122321024-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2061,9 @@
     <t>The Holiday Inn Express Allen North - Event Center was one of the best Holiday Inns I've stayed in.  My wife and I were travelling with our three teenagers and were looking for a room for five which is more difficult to find.  The junior suite was very spacious and includes two queen beds and a pullout couch which was perfect for us.  The hotel is beautifully decorated and the hotel staff was very friendly and helpful.  This hotel will be at the top of my list next time we're travelling through Dallas.</t>
   </si>
   <si>
+    <t>CordilleraTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r119956761-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2082,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>readytogonewhere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r118392899-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1893,6 +2124,9 @@
     <t>On a business trip and selected this hotel as a first-time guest.  I was impressed with the cleanliness of the property; size of the room exceeded my expectation in a positive way as well as the bathroom.  My room was very quiet but it also faced away from the expressway, towards the back.  Front staff was helpful and prompt.  Additional cleaning staff was always friendly with a quick "hello."Only low mark I'd give would be for the breakfast. Powdered eggs tasted like powdered eggs, and not much in the way of fresh fruit - but a free breakfast nonetheless.  There's a 24/7 IHOP nearby but not much else in the immediate vicinity from what I could gather.More</t>
   </si>
   <si>
+    <t>jim_julian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r116638534-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1911,6 +2145,9 @@
     <t>On domestic business trips I often opt for a HIE.  They are consistently pretty good, a little higher than bargain basement price but worth it, always good Internet, always a breakfast, sometimes Manager's receptions, and generally predictable.  This is is the first time I have stayed at this property and it was a fast paced two night stay.  As a Priority Club Platinum I got an upgraded room.  Really spacious.  Good AC control. Fast Internet. Great staff.  Looked like they had a good pool and exercise facility but I didn't have time to check them out.  Breakfast was the only thing sub-par for a HIE ... only one prob, the gravy for biscuits didn't have those little meat chunks that you come to expect in the IHG chain.  Offsetting, the sausage was excellent and the eggs varied each day.  The Manager's reception had plenty of different kinds of beer (this IS Texas) and "chillable" red wine (this IS Texas).  Downside, you get two coupons and can only have two drinks ... I haven't seen this restriction in other Holiday in properties.  OK ... maybe two things were sub par.All in all a good value for $90.  Many restaurants nearby.  I'll repeat if I again have business in the area.More</t>
   </si>
   <si>
+    <t>pdwiemers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r116472998-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2166,9 @@
     <t>My wife and really enjoyed our stay, we would have liked to stay longer.  The service was great and they catered to us like we were in a five star hotel.  The hotel was also in a great location for a couple to get re-connected.  The hotel was within easy walking distance to several restraunts and within easy driving distance to anything you would care to eat.  Breakfast was very good at the hotel.It was wonderful not having our kids along and I can't personnaly recomend the area as a family vacation destination but I would bet there a number of entertainment venues for the whole family.  The hotel had a very nice clean pool and I observed several families enjoying themselves.  My wife loves to swim but this time she really enjoyed the jacuzzi tub.  I can see another project for our home. I grew up staying in Holiday Inns and and just seeing the Holiday Inn sign makes me feel like I'm where I should be, I do miss the old signs.  In a few years my wife and I plan to retire and travel this great Nation and I'm sure we will spend many nights at the Holiday Inn.  I can't think of anything negative to sayexcept the bed rolled slightly to the middle, keep up the good work and I look forward to our next stay.  Keep those Priority Club points coming!More</t>
   </si>
   <si>
+    <t>sbrennan3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r116253202-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2184,9 @@
     <t>The Lobby was very pretty and the Front Desk was very nice.  I asked to be moved to the 4th Floor at check in and this was not a problem.  I would stay here again</t>
   </si>
   <si>
+    <t>mykim71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r115498274-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1962,6 +2205,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>jeo_la</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r115068328-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1980,6 +2226,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>JClaiborne3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r115013970-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -1995,6 +2244,9 @@
     <t>Our extended family gathered for my nephew's wedding.  The facility, the breakfast room, the front desk and housekeeping all worked together with us making it a most enjoyable time.  For some reason our keys needed to be reprogrammed every few hours, which was strange.</t>
   </si>
   <si>
+    <t>onsitedx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r114805607-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2013,6 +2265,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>WendyODXA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r114805130-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2025,6 +2280,9 @@
     <t>We stay on business every 4-6 weeks! We like it because it is clean, the staff is wonderful, and the prices are good! It has become our home away from home. We would recommend this hotel for sure.</t>
   </si>
   <si>
+    <t>babruce2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r114443297-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2040,6 +2298,9 @@
     <t>We've stayed at this Holiday Inn Express many times over the last 4 years.  The staff is very courtious, the rooms are clean and the property is very well maintained.  The breakfast is always well stocked and they make every attempt to make your stay an enjoyable and memorable one.</t>
   </si>
   <si>
+    <t>AndrewGSTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r114274075-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2316,9 @@
     <t>If you're staying in the Allen/Plano area I highly recommend this hotel! My sister, brother-in-law and myself stayed here two nights during Ham-Com in neighboring Plano and we had a great time. The staff is courteous and helpful, the room is sized right and very comfortable, the pool is big enough (got a nice sunburn out there!) and the hot tub is huge. Breakfast was good (the cheese omelettes are yummy) too!We're going back to Ham-Com next year and we'll be booking another room with this hotel.</t>
   </si>
   <si>
+    <t>rsatx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r114164862-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2067,6 +2331,9 @@
     <t>I stay at Holiday Inn Express locations all over the country and I will say that the Allen location has all the amenities you come to expect from Holiday Inn Express, but they take it up a notch. The room was spacious...perhaps the biggest Holiday Inn Express room I have stayed in.  The exercise room had multiple stations.  The breakfast area was spacious.</t>
   </si>
   <si>
+    <t>modan21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r113649462-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2082,6 +2349,9 @@
     <t>Great service and great property.  The hotel decor is a great theme and the old hollywood style is a nice variation from the typical hotel.  The pictures and furniture in the rooms give it a nice feel.</t>
   </si>
   <si>
+    <t>wakefieldfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r112068223-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2367,9 @@
     <t>This is a decent clean hotel for a night. Nothing fancy. Thin walls. Could hear neighbors. Breakfast was lacking to me compared to a Hampton Inn.</t>
   </si>
   <si>
+    <t>MParker17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r96793572-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2115,6 +2388,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>TCU_2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r92725783-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2133,6 +2409,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>ScorpioDiva32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r83083429-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2154,6 +2433,9 @@
     <t>I surprised my husband with a jacuzzi suite for his birthday and it was wonderful!  There were no pictures of this room on the website so I was kind of skeptical but I booked it sight unseen from the suggestion of the front desk clerk Naya. She told me I would love it and I did! Naya was very helpful all through my stay. The room had more than enough towels for the jacuzzi and the shower. The shower is a 2 person shower easily. The jacuzzi was huge as well enough for 2 people! The jacuzzi had curtains around it which was different from any other I had seen. There was a speaker in the bathroom so that you can still hear the t.v. There is a microwave &amp; fridge in the room also. They had free hot breakfast. Check In &amp; Out was less than a minute..no lie..There are many restaurants all around the hotel less than 5 minutes away. The only downfall to my stay was that you can hear the people above you walking around which was annoying at times. Other than that the stay was great and I will love to stay again! I will try to download pictures.More</t>
   </si>
   <si>
+    <t>hottie52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r76115789-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2172,6 +2454,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>Hottrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r59047459-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2193,6 +2478,9 @@
     <t>The staff was polite and the room was clean. There was noticable highway noise, but that was somewhat expected. The main issue is the motion sensor in the thermostat.We got in the room and it was uncomfortably hot, set the t-stat to 68 and left 5 hours later we entered the room and it was still hot. Eventually the room cooled off went to bed and 3 hours later woke to a hot room went to check the t-stat and it kick on as soon as I walk over there. Asked the staff about it in the morning and they said "turn the t-stat all the way down before you go to sleep and then it will stay cooler longer". Not exactly the answer I was looking for.More</t>
   </si>
   <si>
+    <t>gsellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r54601410-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2211,6 +2499,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>tessar508</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r46504777-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2229,6 +2520,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>Pho2Freak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r42503913-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2247,6 +2541,9 @@
     <t>I really loved this hotel.  We had several rooms in the hotel for a wedding event and couldn't have been happier!  I had a King Suite which consisted of one large room with 2 queen beds, sofa, bureau, flat screen TV, fridge and microwave with a bar sink, computer table (with free Wi-Fi and Ethernet connection).  The other room had a King bed with flat screen TV.  Bathroom vanity was done in granite.  Jacuzzi Tub too.  I paid $118 for a wk end night.  This place has been completely remodeled throughout.  My extended family had various rooms that were all done very nicely.  Some did not come with the microwave and bar sink.  Some had two TV''s and some had one.  Tyler at the front desk was extremely nice and helpful.  The breakfast was good with a range of hard boiled eggs, scrambled eggs, yogurt to cereals and fruits.  I would definitely recommend this to family and friends.  They also have a pool but we didn't jump in.  They have a van that will take you to stores in the immediate area.  The driver gets off duty at 6:30 PM.More</t>
   </si>
   <si>
+    <t>dpmiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r34847525-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2262,6 +2559,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>cadetsheppard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r33001449-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2275,6 +2575,9 @@
   </si>
   <si>
     <t>June 2009</t>
+  </si>
+  <si>
+    <t>PamFan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r23157763-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -2312,6 +2615,9 @@
     The downsides to this suite--- there is no microwave, and there is no fan in the bathroom.  There is a safe and small frig.  When I complained that there was no microwave, I was told it is only...Quietly resting, almost hidden, behind restaurants, on Hwy 75 in Allen, Texas was a boutique style hotel with beautiful interiors and the richest looking buffet breakfast area that I've ever seen in a hotel.  It even had overstuffed leather couches and a fireplace!The marble floors and crown molding were exquisite!        My husband and I and my parents were visiting relatives in Allen, and I booked our 2 room suite through Priority Club to get extra points.  Using the suite was cheaper than booking 2 separate rooms.  However, all  rooms and suites  have only ONE bathroom.     Our suite was room 302.  It's view was open fields, which to  me is much better than looking at buildings.  It had a king size bed in the main room.  A small, separate bedroom was listed as a queen, but was only a full size bed.  The pillowtop beds were very comfortable.   Each area had its own flat screen tv and chest of drawers, but you had to retrieve the luggage rack from the front closet in the main room to put into the bedroom so you'd  have a place to put your suitcase in there.  It fit nicely in a snug corner by the bed.     The downsides to this suite--- there is no microwave, and there is no fan in the bathroom.  There is a safe and small frig.  When I complained that there was no microwave, I was told it is only in the junior suite and we were in a family suite.  That made no sense since usually to be called a suite means that you have a frig AND microwave!  However, the night manager was very apologetic and twice took me into the breakfast bar kitchenette designed to be used only by employees working the breakfast bar. I was then able to warm up food for my elderly parents who were too tired to go out to restaurants.     The hotel even had a wheel chair which we used several times for my dad, so he would not have to do as much walking since the suites are not located on the first floor.The fitness center was nice and I was told that the hotel is only 2 years old.  I would defintely stay here again.One warning!!! The water in this part of Texas tastes horrible and smells, so I would recommend bringing your own bottles of water for drinking.More</t>
   </si>
   <si>
+    <t>Wolfgame</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r22764601-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2333,6 +2639,9 @@
     <t>Stayed here while driving through for a thanksgiving trip in Texas.  We were using someone's points, so Holiday Inn it was.  Apparently this hotel is brand new...or at least seemed that way.The rooms are very large, the bathroom was great with a jacuzzi garden tub, flat screen tv's, internet access was a breeze.  If you are passing through and looking for a place to stay....I would recommend the Holiday Inn Express in Allen.More</t>
   </si>
   <si>
+    <t>cinncitraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r20498068-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
   </si>
   <si>
@@ -2349,6 +2658,9 @@
   </si>
   <si>
     <t>A very nice property.  Room was very large, well appointed, comfortable, and clean.  The main issue I had was noise.  The highway was loud, too much space at the room door allowing hallway noise in, and even noise from the floor above.  The free breakfast and internet are great.  If the property had been built with proper sound insulation, it would be great.More</t>
+  </si>
+  <si>
+    <t>Norman_Sooner</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r19198482-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -2386,6 +2698,9 @@
   </si>
   <si>
     <t>This Hotel exceeded our expectations.  We were in town for a sports event and friends booked this hotel.  We didn't expect much but when we arrived it was much better than any Holiday Inn Express we had stayed at previously.  Large rooms, comfortable beds and the kids loved the large bathtubs.  This hotel deserves a higher star rating.</t>
+  </si>
+  <si>
+    <t>BCC1972</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d618172-r5803086-Holiday_Inn_Express_Suites_Allen_North_Event_Center-Allen_Texas.html</t>
@@ -2921,43 +3236,47 @@
       <c r="A2" t="n">
         <v>54270</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>154953</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2975,50 +3294,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54270</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>154954</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3030,56 +3353,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54270</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>154955</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -3099,50 +3426,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54270</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>29256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3156,50 +3487,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54270</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>36983</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3217,50 +3552,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54270</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>154956</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3274,50 +3613,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54270</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>154957</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3335,56 +3678,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54270</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>154958</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>102</v>
       </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3404,50 +3751,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54270</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>154959</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3461,50 +3812,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54270</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>575</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3518,50 +3873,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54270</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>112800</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3575,50 +3934,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54270</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>298</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3638,50 +4001,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54270</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>154960</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3701,50 +4068,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54270</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3758,50 +4129,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54270</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>154962</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3819,50 +4194,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54270</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>154963</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3876,50 +4255,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54270</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7288</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3939,50 +4322,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54270</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>95645</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4002,50 +4389,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54270</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>154964</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -4065,50 +4456,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54270</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>154965</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4128,50 +4523,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54270</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>154966</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4185,50 +4584,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54270</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4248,50 +4651,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54270</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>154967</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4309,50 +4716,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54270</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>154968</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4366,41 +4777,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54270</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>154969</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -4419,50 +4834,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54270</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>154970</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4474,56 +4893,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="X27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54270</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>11327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>214</v>
       </c>
-      <c r="L28" t="s">
-        <v>215</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>191</v>
-      </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4543,50 +4966,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54270</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>154971</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4606,50 +5033,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54270</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>154964</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4667,50 +5098,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54270</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>154972</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4728,56 +5163,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="X31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54270</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>154973</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4797,50 +5236,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54270</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>154974</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4852,56 +5295,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="X33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="Y33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54270</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>154969</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4913,56 +5360,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="X34" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54270</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4980,50 +5431,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54270</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>154975</v>
+      </c>
+      <c r="C36" t="s">
+        <v>296</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5037,50 +5492,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54270</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>154976</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5100,50 +5559,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54270</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>143283</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5163,50 +5626,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54270</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5226,50 +5693,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54270</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>14545</v>
+      </c>
+      <c r="C40" t="s">
+        <v>321</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5287,56 +5758,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X40" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Y40" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54270</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>154977</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5352,56 +5827,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="X41" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Y41" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54270</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>154978</v>
+      </c>
+      <c r="C42" t="s">
+        <v>342</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5421,50 +5900,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54270</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>154979</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5476,56 +5959,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="X43" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="Y43" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54270</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>236</v>
+      </c>
+      <c r="C44" t="s">
+        <v>358</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="J44" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5545,41 +6032,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54270</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>154980</v>
+      </c>
+      <c r="C45" t="s">
+        <v>365</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="J45" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -5598,50 +6089,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54270</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>154981</v>
+      </c>
+      <c r="C46" t="s">
+        <v>371</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="J46" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="K46" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5659,50 +6154,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54270</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>154982</v>
+      </c>
+      <c r="C47" t="s">
+        <v>377</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="K47" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5722,50 +6221,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54270</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>19158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>385</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="J48" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5779,50 +6282,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54270</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>19527</v>
+      </c>
+      <c r="C49" t="s">
+        <v>391</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="K49" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5840,47 +6347,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="X49" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="Y49" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54270</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>154983</v>
+      </c>
+      <c r="C50" t="s">
+        <v>401</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="J50" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5907,56 +6418,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="X50" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="Y50" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54270</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>154984</v>
+      </c>
+      <c r="C51" t="s">
+        <v>410</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="J51" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5974,56 +6489,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="X51" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="Y51" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54270</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>154985</v>
+      </c>
+      <c r="C52" t="s">
+        <v>420</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="J52" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="K52" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6041,56 +6560,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="X52" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="Y52" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54270</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>154986</v>
+      </c>
+      <c r="C53" t="s">
+        <v>429</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="J53" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="K53" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="L53" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="O53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6112,56 +6635,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="X53" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="Y53" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54270</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>154987</v>
+      </c>
+      <c r="C54" t="s">
+        <v>439</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="J54" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6183,56 +6710,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="X54" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="Y54" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54270</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>114952</v>
+      </c>
+      <c r="C55" t="s">
+        <v>448</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="J55" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="K55" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6254,56 +6785,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="X55" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="Y55" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54270</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>154988</v>
+      </c>
+      <c r="C56" t="s">
+        <v>458</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="J56" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6315,56 +6850,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="X56" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="Y56" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54270</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>154989</v>
+      </c>
+      <c r="C57" t="s">
+        <v>468</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="J57" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K57" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L57" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6376,56 +6915,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="X57" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="Y57" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54270</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>154990</v>
+      </c>
+      <c r="C58" t="s">
+        <v>477</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="J58" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K58" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L58" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6447,56 +6990,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="X58" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="Y58" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54270</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>154991</v>
+      </c>
+      <c r="C59" t="s">
+        <v>484</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="J59" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="K59" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="L59" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="O59" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6518,56 +7065,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="X59" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="Y59" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>54270</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>154992</v>
+      </c>
+      <c r="C60" t="s">
+        <v>494</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="J60" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="K60" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="L60" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6589,56 +7140,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="X60" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="Y60" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>54270</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C61" t="s">
+        <v>504</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="J61" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="K61" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="L61" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6650,56 +7205,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="X61" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="Y61" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>54270</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C62" t="s">
+        <v>512</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="K62" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="L62" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6721,47 +7280,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="X62" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="Y62" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54270</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>154993</v>
+      </c>
+      <c r="C63" t="s">
+        <v>522</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="J63" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="K63" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="L63" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6788,56 +7351,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="X63" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="Y63" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>54270</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>154994</v>
+      </c>
+      <c r="C64" t="s">
+        <v>531</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="J64" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="K64" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="L64" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6859,56 +7426,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="X64" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="Y64" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>54270</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>154995</v>
+      </c>
+      <c r="C65" t="s">
+        <v>541</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J65" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="K65" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6930,56 +7501,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="X65" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="Y65" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>54270</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>154996</v>
+      </c>
+      <c r="C66" t="s">
+        <v>550</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="J66" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="K66" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="L66" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7001,56 +7576,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="X66" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="Y66" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54270</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>154997</v>
+      </c>
+      <c r="C67" t="s">
+        <v>559</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="J67" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="K67" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="L67" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7072,56 +7651,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="X67" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="Y67" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>54270</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>154998</v>
+      </c>
+      <c r="C68" t="s">
+        <v>566</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="J68" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="K68" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="L68" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="O68" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7133,47 +7716,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="X68" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="Y68" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>54270</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>154999</v>
+      </c>
+      <c r="C69" t="s">
+        <v>576</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="J69" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="K69" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="L69" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7202,50 +7789,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>54270</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C70" t="s">
+        <v>504</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="J70" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="K70" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="L70" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7269,41 +7860,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>54270</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>589</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="J71" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="K71" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="L71" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -7330,56 +7925,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="X71" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="Y71" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>54270</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>102585</v>
+      </c>
+      <c r="C72" t="s">
+        <v>598</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="K72" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="L72" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="O72" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7403,50 +8002,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>54270</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>105293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>605</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="J73" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K73" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="L73" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="O73" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7470,50 +8073,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>54270</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155001</v>
+      </c>
+      <c r="C74" t="s">
+        <v>613</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="J74" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="K74" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="L74" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="O74" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7537,50 +8144,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54270</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>155002</v>
+      </c>
+      <c r="C75" t="s">
+        <v>619</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="J75" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="K75" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="L75" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="O75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7604,50 +8215,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>54270</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155003</v>
+      </c>
+      <c r="C76" t="s">
+        <v>625</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="J76" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="K76" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="L76" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="O76" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7671,50 +8286,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>54270</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155004</v>
+      </c>
+      <c r="C77" t="s">
+        <v>631</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
       <c r="J77" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="K77" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="L77" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7738,50 +8357,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>54270</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>154993</v>
+      </c>
+      <c r="C78" t="s">
+        <v>531</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="J78" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="K78" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="L78" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7805,50 +8428,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>54270</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155005</v>
+      </c>
+      <c r="C79" t="s">
+        <v>644</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="J79" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="K79" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="L79" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="O79" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7872,50 +8499,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>54270</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>12323</v>
+      </c>
+      <c r="C80" t="s">
+        <v>652</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="J80" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="K80" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
       <c r="L80" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="O80" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7939,50 +8570,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>54270</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155006</v>
+      </c>
+      <c r="C81" t="s">
+        <v>657</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="J81" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="K81" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
       <c r="L81" t="s">
-        <v>586</v>
+        <v>662</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>587</v>
+        <v>663</v>
       </c>
       <c r="O81" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8006,41 +8641,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>586</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>54270</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>155007</v>
+      </c>
+      <c r="C82" t="s">
+        <v>664</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="J82" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="K82" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="L82" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
@@ -8069,7 +8708,7 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83">
@@ -8082,37 +8721,37 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="J83" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="K83" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="L83" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8132,50 +8771,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>54270</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155008</v>
+      </c>
+      <c r="C84" t="s">
+        <v>678</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>602</v>
+        <v>680</v>
       </c>
       <c r="J84" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="K84" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="L84" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8195,50 +8838,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>54270</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155009</v>
+      </c>
+      <c r="C85" t="s">
+        <v>685</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="J85" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="K85" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="L85" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="O85" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8258,50 +8905,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>54270</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155010</v>
+      </c>
+      <c r="C86" t="s">
+        <v>692</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>613</v>
+        <v>693</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>614</v>
+        <v>694</v>
       </c>
       <c r="J86" t="s">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="K86" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="L86" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="O86" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8321,50 +8972,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>54270</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155011</v>
+      </c>
+      <c r="C87" t="s">
+        <v>698</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="J87" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="K87" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="L87" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="O87" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8384,50 +9039,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>54270</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155012</v>
+      </c>
+      <c r="C88" t="s">
+        <v>705</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="J88" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="K88" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="L88" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="O88" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8447,50 +9106,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>54270</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>155013</v>
+      </c>
+      <c r="C89" t="s">
+        <v>712</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>631</v>
+        <v>714</v>
       </c>
       <c r="J89" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="K89" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="L89" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="O89" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
@@ -8504,50 +9167,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>54270</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>155014</v>
+      </c>
+      <c r="C90" t="s">
+        <v>718</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="J90" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="K90" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="L90" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8567,50 +9234,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>54270</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>155015</v>
+      </c>
+      <c r="C91" t="s">
+        <v>725</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
       <c r="J91" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="K91" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="L91" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8630,50 +9301,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>54270</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>155016</v>
+      </c>
+      <c r="C92" t="s">
+        <v>730</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
       <c r="J92" t="s">
-        <v>647</v>
+        <v>733</v>
       </c>
       <c r="K92" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="L92" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O92" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8693,50 +9368,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>54270</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>155017</v>
+      </c>
+      <c r="C93" t="s">
+        <v>736</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="J93" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="K93" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="L93" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O93" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8756,50 +9435,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>54270</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>155018</v>
+      </c>
+      <c r="C94" t="s">
+        <v>742</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="J94" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="K94" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="L94" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8819,50 +9502,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>54270</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155019</v>
+      </c>
+      <c r="C95" t="s">
+        <v>747</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="J95" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="K95" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="L95" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8882,50 +9569,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>54270</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>155020</v>
+      </c>
+      <c r="C96" t="s">
+        <v>753</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="J96" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="K96" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
       <c r="L96" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="O96" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -8949,50 +9640,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>54270</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>155021</v>
+      </c>
+      <c r="C97" t="s">
+        <v>759</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>670</v>
+        <v>761</v>
       </c>
       <c r="J97" t="s">
-        <v>671</v>
+        <v>762</v>
       </c>
       <c r="K97" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="L97" t="s">
-        <v>673</v>
+        <v>764</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="O97" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9016,50 +9711,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>673</v>
+        <v>764</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>54270</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>155022</v>
+      </c>
+      <c r="C98" t="s">
+        <v>766</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>675</v>
+        <v>767</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>676</v>
+        <v>768</v>
       </c>
       <c r="J98" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
       <c r="K98" t="s">
-        <v>678</v>
+        <v>770</v>
       </c>
       <c r="L98" t="s">
-        <v>679</v>
+        <v>771</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9083,50 +9782,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>679</v>
+        <v>771</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>54270</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>155023</v>
+      </c>
+      <c r="C99" t="s">
+        <v>773</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>681</v>
+        <v>774</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>682</v>
+        <v>775</v>
       </c>
       <c r="J99" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
       <c r="K99" t="s">
-        <v>684</v>
+        <v>777</v>
       </c>
       <c r="L99" t="s">
-        <v>685</v>
+        <v>778</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>686</v>
+        <v>779</v>
       </c>
       <c r="O99" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9150,50 +9853,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>687</v>
+        <v>780</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>54270</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155024</v>
+      </c>
+      <c r="C100" t="s">
+        <v>781</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="J100" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="K100" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="L100" t="s">
-        <v>692</v>
+        <v>786</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>693</v>
+        <v>787</v>
       </c>
       <c r="O100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9217,50 +9924,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>692</v>
+        <v>786</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>54270</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155025</v>
+      </c>
+      <c r="C101" t="s">
+        <v>788</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>694</v>
+        <v>789</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="J101" t="s">
-        <v>696</v>
+        <v>791</v>
       </c>
       <c r="K101" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
       <c r="L101" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>699</v>
+        <v>794</v>
       </c>
       <c r="O101" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9284,50 +9995,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>700</v>
+        <v>795</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>54270</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>155026</v>
+      </c>
+      <c r="C102" t="s">
+        <v>796</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>701</v>
+        <v>797</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
       <c r="J102" t="s">
-        <v>703</v>
+        <v>799</v>
       </c>
       <c r="K102" t="s">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="L102" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>706</v>
+        <v>802</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9351,50 +10066,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>54270</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>155027</v>
+      </c>
+      <c r="C103" t="s">
+        <v>803</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>707</v>
+        <v>804</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>708</v>
+        <v>805</v>
       </c>
       <c r="J103" t="s">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="K103" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="L103" t="s">
-        <v>711</v>
+        <v>808</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>712</v>
+        <v>809</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9418,50 +10137,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>711</v>
+        <v>808</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>54270</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>155028</v>
+      </c>
+      <c r="C104" t="s">
+        <v>810</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>713</v>
+        <v>811</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>714</v>
+        <v>812</v>
       </c>
       <c r="J104" t="s">
-        <v>715</v>
+        <v>813</v>
       </c>
       <c r="K104" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="L104" t="s">
-        <v>717</v>
+        <v>815</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>712</v>
+        <v>809</v>
       </c>
       <c r="O104" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9485,50 +10208,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>54270</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>62369</v>
+      </c>
+      <c r="C105" t="s">
+        <v>817</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>720</v>
+        <v>819</v>
       </c>
       <c r="J105" t="s">
-        <v>721</v>
+        <v>820</v>
       </c>
       <c r="K105" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="L105" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>723</v>
+        <v>822</v>
       </c>
       <c r="O105" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9552,50 +10279,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>54270</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>155029</v>
+      </c>
+      <c r="C106" t="s">
+        <v>823</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>724</v>
+        <v>824</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="J106" t="s">
-        <v>726</v>
+        <v>826</v>
       </c>
       <c r="K106" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="L106" t="s">
-        <v>727</v>
+        <v>827</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>728</v>
+        <v>828</v>
       </c>
       <c r="O106" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9619,50 +10350,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>727</v>
+        <v>827</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>54270</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>155030</v>
+      </c>
+      <c r="C107" t="s">
+        <v>829</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>729</v>
+        <v>830</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>730</v>
+        <v>831</v>
       </c>
       <c r="J107" t="s">
-        <v>731</v>
+        <v>832</v>
       </c>
       <c r="K107" t="s">
-        <v>732</v>
+        <v>833</v>
       </c>
       <c r="L107" t="s">
-        <v>733</v>
+        <v>834</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>734</v>
+        <v>835</v>
       </c>
       <c r="O107" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9684,56 +10419,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>735</v>
+        <v>836</v>
       </c>
       <c r="X107" t="s">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="Y107" t="s">
-        <v>737</v>
+        <v>838</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>54270</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>155031</v>
+      </c>
+      <c r="C108" t="s">
+        <v>839</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>738</v>
+        <v>840</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>739</v>
+        <v>841</v>
       </c>
       <c r="J108" t="s">
-        <v>740</v>
+        <v>842</v>
       </c>
       <c r="K108" t="s">
-        <v>741</v>
+        <v>843</v>
       </c>
       <c r="L108" t="s">
-        <v>742</v>
+        <v>844</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>743</v>
+        <v>845</v>
       </c>
       <c r="O108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9755,47 +10494,51 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>735</v>
+        <v>836</v>
       </c>
       <c r="X108" t="s">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="Y108" t="s">
-        <v>744</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>54270</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>45513</v>
+      </c>
+      <c r="C109" t="s">
+        <v>847</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>746</v>
+        <v>849</v>
       </c>
       <c r="J109" t="s">
-        <v>747</v>
+        <v>850</v>
       </c>
       <c r="K109" t="s">
-        <v>748</v>
+        <v>851</v>
       </c>
       <c r="L109" t="s">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
@@ -9812,56 +10555,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>735</v>
+        <v>836</v>
       </c>
       <c r="X109" t="s">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="Y109" t="s">
-        <v>750</v>
+        <v>853</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>54270</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>155032</v>
+      </c>
+      <c r="C110" t="s">
+        <v>854</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>751</v>
+        <v>855</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="J110" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="K110" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="L110" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>756</v>
+        <v>860</v>
       </c>
       <c r="O110" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -9885,41 +10632,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>757</v>
+        <v>861</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>54270</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>154963</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>758</v>
+        <v>862</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>759</v>
+        <v>863</v>
       </c>
       <c r="J111" t="s">
-        <v>760</v>
+        <v>864</v>
       </c>
       <c r="K111" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L111" t="s">
-        <v>761</v>
+        <v>865</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
@@ -9948,50 +10699,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>761</v>
+        <v>865</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>54270</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>155033</v>
+      </c>
+      <c r="C112" t="s">
+        <v>866</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>762</v>
+        <v>867</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>763</v>
+        <v>868</v>
       </c>
       <c r="J112" t="s">
-        <v>764</v>
+        <v>869</v>
       </c>
       <c r="K112" t="s">
-        <v>765</v>
+        <v>870</v>
       </c>
       <c r="L112" t="s">
-        <v>766</v>
+        <v>871</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>767</v>
+        <v>872</v>
       </c>
       <c r="O112" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10015,7 +10770,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>768</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
